--- a/zssapp3/src/main/webapp/WEB-INF/books/sample.xlsx
+++ b/zssapp3/src/main/webapp/WEB-INF/books/sample.xlsx
@@ -313,7 +313,7 @@
   <fonts count="9">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -395,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442" rgb="1F497D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921" rgb="F79646"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,16 +1913,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="8" width="14.7109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1945,9 +1945,9 @@
       <c r="C4" s="6">
         <v>456</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <f>SUM(B4:C4)</f>
-        <v>579</v>
+        <v>579.0</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -2119,8 +2119,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -2230,8 +2230,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
@@ -2277,7 +2277,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="43.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -2306,8 +2306,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -2324,9 +2324,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:5">
@@ -2388,8 +2388,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:9">
@@ -3089,8 +3089,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="9.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
